--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_15-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_15-36.xlsx
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1633,13 +1636,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1651,7 +1654,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1659,13 +1662,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>2.5</v>
+        <v>51</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1677,7 +1680,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1685,13 +1688,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>48</v>
+        <v>2.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1711,13 +1714,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1737,13 +1740,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1763,17 +1766,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1781,7 +1784,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1789,17 +1792,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1807,7 +1810,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,17 +1818,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1833,7 +1836,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1841,17 +1844,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1859,7 +1862,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,7 +1870,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1877,7 +1880,7 @@
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1885,7 +1888,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1893,13 +1896,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1911,7 +1914,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1919,13 +1922,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1937,7 +1940,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,13 +1948,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1963,7 +1966,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1971,13 +1974,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1997,17 +2000,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2015,7 +2018,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2023,17 +2026,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2049,51 +2052,77 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="K51" s="10">
-        <v>2789.8299999999999</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="11">
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
+        <v>83</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
         <v>84</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c t="s" r="F52" s="12">
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>45</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c t="s" r="N51" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="26.25" customHeight="1">
+      <c r="K52" s="10">
+        <v>2828.8299999999999</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="11">
         <v>85</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c t="s" r="I52" s="14">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c t="s" r="F53" s="12">
         <v>86</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c t="s" r="I53" s="14">
+        <v>87</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="155">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2242,10 +2271,13 @@
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:N53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
